--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Kackstuhl.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Kackstuhl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="43">
   <si>
     <t>firstName</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t>Lindemann</t>
+    <t>Lindemann-Breuker</t>
   </si>
   <si>
     <t>Luig</t>
@@ -121,7 +121,25 @@
     <t>Tillmann</t>
   </si>
   <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Maday</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Thorsten</t>
+  </si>
+  <si>
+    <t>Hartmann</t>
+  </si>
+  <si>
+    <t>Uwe</t>
+  </si>
+  <si>
+    <t>Isenberg</t>
   </si>
 </sst>
 </file>
@@ -200,11 +218,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -258,26 +276,26 @@
         <v>12</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F2" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G2" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H2" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I2" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="3">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="3">
@@ -294,26 +312,26 @@
         <v>12</v>
       </c>
       <c r="E3" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G3" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H3" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I3" s="4">
         <v>0.0</v>
       </c>
       <c r="J3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="3">
-        <v>0.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="4">
@@ -330,26 +348,26 @@
         <v>12</v>
       </c>
       <c r="E4" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F4" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I4" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="3">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="5">
@@ -366,26 +384,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G5" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H5" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I5" s="4">
         <v>0.0</v>
       </c>
       <c r="J5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="3">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="6">
@@ -402,26 +420,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G6" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H6" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I6" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="3">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="7">
@@ -438,26 +456,26 @@
         <v>12</v>
       </c>
       <c r="E7" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F7" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G7" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H7" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I7" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="3">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="8">
@@ -474,26 +492,26 @@
         <v>12</v>
       </c>
       <c r="E8" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F8" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G8" s="4">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H8" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I8" s="4">
         <v>0.0</v>
       </c>
       <c r="J8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="9">
@@ -510,26 +528,26 @@
         <v>12</v>
       </c>
       <c r="E9" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F9" s="4">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G9" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H9" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I9" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="3">
-        <v>0.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="10">
@@ -546,26 +564,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F10" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H10" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I10" s="4">
         <v>0.0</v>
       </c>
       <c r="J10" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="11">
@@ -582,26 +600,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F11" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G11" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H11" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I11" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J11" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="12">
@@ -618,26 +636,26 @@
         <v>12</v>
       </c>
       <c r="E12" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F12" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G12" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H12" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I12" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="13">
@@ -654,26 +672,26 @@
         <v>12</v>
       </c>
       <c r="E13" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F13" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="G13" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H13" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I13" s="4">
         <v>0.0</v>
       </c>
       <c r="J13" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="14">
@@ -690,26 +708,26 @@
         <v>12</v>
       </c>
       <c r="E14" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F14" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G14" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H14" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I14" s="4">
         <v>0.0</v>
       </c>
       <c r="J14" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="15">
@@ -726,26 +744,26 @@
         <v>12</v>
       </c>
       <c r="E15" s="4">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F15" s="4">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G15" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H15" s="4">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I15" s="4">
         <v>0.0</v>
       </c>
       <c r="J15" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="3">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="16">
@@ -762,26 +780,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="4">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F16" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G16" s="4">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="H16" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I16" s="4">
         <v>0.0</v>
       </c>
       <c r="J16" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="3">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="17">
@@ -798,26 +816,26 @@
         <v>12</v>
       </c>
       <c r="E17" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F17" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G17" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H17" s="4">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I17" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="3">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="18">
@@ -834,26 +852,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="F18" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G18" s="4">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="H18" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I18" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="3">
-        <v>0.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="19">
@@ -870,26 +888,26 @@
         <v>12</v>
       </c>
       <c r="E19" s="4">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="F19" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G19" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H19" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I19" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3">
-        <v>0.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="20">
@@ -906,26 +924,26 @@
         <v>12</v>
       </c>
       <c r="E20" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F20" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G20" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H20" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I20" s="4">
         <v>0.0</v>
       </c>
       <c r="J20" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3">
-        <v>0.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="21">
@@ -942,26 +960,26 @@
         <v>12</v>
       </c>
       <c r="E21" s="4">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="F21" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G21" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H21" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I21" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3">
-        <v>0.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="22">
@@ -993,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3">
@@ -1029,7 +1047,7 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="3">
@@ -1050,26 +1068,26 @@
         <v>12</v>
       </c>
       <c r="E24" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F24" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G24" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H24" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="I24" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J24" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="25">
@@ -1086,26 +1104,26 @@
         <v>12</v>
       </c>
       <c r="E25" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F25" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="G25" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H25" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I25" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3">
-        <v>0.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,26 +1140,26 @@
         <v>12</v>
       </c>
       <c r="E26" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F26" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G26" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H26" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="I26" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J26" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3">
-        <v>0.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="27">
@@ -1158,26 +1176,26 @@
         <v>12</v>
       </c>
       <c r="E27" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F27" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="G27" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H27" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I27" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J27" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3">
-        <v>0.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="28">
@@ -1194,26 +1212,26 @@
         <v>12</v>
       </c>
       <c r="E28" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F28" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="G28" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H28" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I28" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="3">
-        <v>0.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,26 +1248,26 @@
         <v>12</v>
       </c>
       <c r="E29" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F29" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G29" s="4">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H29" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I29" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J29" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="3">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
     </row>
     <row r="30">
@@ -1266,26 +1284,26 @@
         <v>12</v>
       </c>
       <c r="E30" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F30" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="G30" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="H30" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I30" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J30" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="3">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
     </row>
     <row r="31">
@@ -1302,26 +1320,26 @@
         <v>12</v>
       </c>
       <c r="E31" s="4">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="F31" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G31" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H31" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="I31" s="4">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J31" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="3">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="32">
@@ -1353,7 +1371,7 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="3">
@@ -1389,7 +1407,7 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="3">
@@ -1425,7 +1443,7 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="3">
@@ -1461,7 +1479,7 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="3">
@@ -1497,7 +1515,7 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="3">
@@ -1533,7 +1551,7 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="3">
@@ -1554,26 +1572,26 @@
         <v>12</v>
       </c>
       <c r="E38" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F38" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G38" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H38" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I38" s="4">
         <v>0.0</v>
       </c>
       <c r="J38" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="3">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="39">
@@ -1590,26 +1608,26 @@
         <v>12</v>
       </c>
       <c r="E39" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F39" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G39" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H39" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I39" s="4">
         <v>0.0</v>
       </c>
       <c r="J39" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="3">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="40">
@@ -1626,26 +1644,26 @@
         <v>12</v>
       </c>
       <c r="E40" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F40" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G40" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H40" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I40" s="4">
         <v>0.0</v>
       </c>
       <c r="J40" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="3">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="41">
@@ -1662,26 +1680,26 @@
         <v>12</v>
       </c>
       <c r="E41" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F41" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G41" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H41" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I41" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J41" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="3">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="42">
@@ -1698,26 +1716,26 @@
         <v>12</v>
       </c>
       <c r="E42" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F42" s="4">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G42" s="4">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="H42" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I42" s="4">
         <v>0.0</v>
       </c>
       <c r="J42" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="3">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="43">
@@ -1734,26 +1752,26 @@
         <v>12</v>
       </c>
       <c r="E43" s="4">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F43" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G43" s="4">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H43" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I43" s="4">
         <v>0.0</v>
       </c>
       <c r="J43" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="3">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="44">
@@ -1770,26 +1788,26 @@
         <v>12</v>
       </c>
       <c r="E44" s="4">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F44" s="4">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G44" s="4">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H44" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I44" s="4">
         <v>0.0</v>
       </c>
       <c r="J44" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="3">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="45">
@@ -1806,26 +1824,26 @@
         <v>12</v>
       </c>
       <c r="E45" s="4">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F45" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G45" s="4">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H45" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I45" s="4">
         <v>0.0</v>
       </c>
       <c r="J45" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="3">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="46">
@@ -1842,26 +1860,26 @@
         <v>12</v>
       </c>
       <c r="E46" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F46" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G46" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H46" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I46" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J46" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="3">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="47">
@@ -1878,26 +1896,26 @@
         <v>12</v>
       </c>
       <c r="E47" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F47" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G47" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H47" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I47" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J47" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="3">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="48">
@@ -1914,26 +1932,26 @@
         <v>12</v>
       </c>
       <c r="E48" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F48" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G48" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H48" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I48" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J48" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="3">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
     </row>
     <row r="49">
@@ -1950,26 +1968,26 @@
         <v>12</v>
       </c>
       <c r="E49" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F49" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G49" s="4">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H49" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="I49" s="4">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="3">
-        <v>0.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="50">
@@ -1986,26 +2004,26 @@
         <v>12</v>
       </c>
       <c r="E50" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F50" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="G50" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H50" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I50" s="4">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="J50" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="3">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="51">
@@ -2022,26 +2040,26 @@
         <v>12</v>
       </c>
       <c r="E51" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F51" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G51" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="H51" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I51" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J51" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="3">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="52">
@@ -2058,26 +2076,26 @@
         <v>12</v>
       </c>
       <c r="E52" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F52" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G52" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H52" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I52" s="4">
         <v>0.0</v>
       </c>
       <c r="J52" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="53">
@@ -2094,26 +2112,26 @@
         <v>12</v>
       </c>
       <c r="E53" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F53" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G53" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H53" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J53" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="3">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="54">
@@ -2130,26 +2148,26 @@
         <v>12</v>
       </c>
       <c r="E54" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F54" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G54" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H54" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I54" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J54" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="3">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="55">
@@ -2166,26 +2184,26 @@
         <v>12</v>
       </c>
       <c r="E55" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F55" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G55" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H55" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I55" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J55" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="3">
-        <v>0.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="56">
@@ -2202,26 +2220,26 @@
         <v>12</v>
       </c>
       <c r="E56" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F56" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G56" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H56" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I56" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J56" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="3">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="57">
@@ -2238,26 +2256,26 @@
         <v>12</v>
       </c>
       <c r="E57" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F57" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G57" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H57" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I57" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J57" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="3">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="58">
@@ -2274,26 +2292,26 @@
         <v>12</v>
       </c>
       <c r="E58" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F58" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G58" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="H58" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I58" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J58" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="3">
-        <v>0.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="59">
@@ -2310,26 +2328,26 @@
         <v>12</v>
       </c>
       <c r="E59" s="4">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="F59" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G59" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H59" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I59" s="4">
         <v>0.0</v>
       </c>
       <c r="J59" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="3">
-        <v>0.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="60">
@@ -2346,26 +2364,26 @@
         <v>12</v>
       </c>
       <c r="E60" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F60" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G60" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H60" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I60" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J60" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="3">
-        <v>0.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="61">
@@ -2382,26 +2400,26 @@
         <v>12</v>
       </c>
       <c r="E61" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F61" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G61" s="4">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H61" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I61" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J61" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="3">
-        <v>0.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="62">
@@ -2418,26 +2436,26 @@
         <v>12</v>
       </c>
       <c r="E62" s="4">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="F62" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G62" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H62" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I62" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J62" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="3">
-        <v>0.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="63">
@@ -2454,26 +2472,26 @@
         <v>12</v>
       </c>
       <c r="E63" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F63" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G63" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H63" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I63" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J63" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="3">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="64">
@@ -2490,26 +2508,26 @@
         <v>12</v>
       </c>
       <c r="E64" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F64" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G64" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H64" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I64" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J64" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="3">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="65">
@@ -2526,218 +2544,242 @@
         <v>12</v>
       </c>
       <c r="E65" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="F65" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G65" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H65" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I65" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J65" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="3">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C66" s="4">
         <v>1.0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E66" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F66" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G66" s="4">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="H66" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I66" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J66" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="3">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C67" s="4">
         <v>2.0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E67" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F67" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G67" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H67" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I67" s="4">
         <v>0.0</v>
       </c>
       <c r="J67" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="3">
-        <v>0.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C68" s="4">
         <v>1.0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E68" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F68" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="G68" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="H68" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I68" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J68" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="3">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C69" s="4">
         <v>2.0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E69" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F69" s="4">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G69" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H69" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I69" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J69" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="3">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C70" s="4">
         <v>3.0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E70" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F70" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="G70" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H70" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I70" s="4">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J70" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="3">
-        <v>0.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C71" s="4">
         <v>4.0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E71" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="F71" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G71" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H71" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I71" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J71" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="3">
-        <v>0.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="72">
@@ -2747,7 +2789,7 @@
         <v>3.0</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E72" s="8">
         <v>0.0</v>
@@ -2779,7 +2821,7 @@
         <v>4.0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E73" s="4">
         <v>0.0</v>
